--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -25,6 +25,15 @@
     <t>AssetPathId</t>
   </si>
   <si>
+    <t>NameCn</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -37,16 +46,13 @@
     <t>资源路径</t>
   </si>
   <si>
-    <t>日历</t>
-  </si>
-  <si>
-    <t>客厅</t>
-  </si>
-  <si>
-    <t>老李房间</t>
-  </si>
-  <si>
-    <t>测试房间1</t>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>旋转</t>
   </si>
 </sst>
 </file>
@@ -64,7 +70,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,7 +77,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,14 +84,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +97,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,7 +104,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,7 +111,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,7 +118,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,14 +125,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,7 +138,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,7 +145,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,14 +152,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,50 +165,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -535,7 +516,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -559,16 +540,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
@@ -577,102 +558,235 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -992,96 +1106,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2" style="2" customWidth="1"/>
-    <col min="4" max="16361" width="9" style="2" customWidth="1"/>
-    <col min="16362" max="16384" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>100001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>100002</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>100003</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>100003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>100004</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>100004</v>
+      <c r="E3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -40,9 +40,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
     <t>资源路径</t>
   </si>
   <si>
@@ -53,6 +50,30 @@
   </si>
   <si>
     <t>旋转</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>日历</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1127,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -1159,19 +1180,59 @@
         <v>0</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="F3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>12</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -34,12 +34,21 @@
     <t>Rotation</t>
   </si>
   <si>
+    <t>DynamicObjectType</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>Vector3</t>
+  </si>
+  <si>
     <t>资源路径</t>
   </si>
   <si>
@@ -52,28 +61,25 @@
     <t>旋转</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>100001</t>
+    <t>动态对象类型</t>
+  </si>
+  <si>
+    <t>子预制体名</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>日历</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Calendar</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>日历</t>
   </si>
 </sst>
 </file>
@@ -91,6 +97,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +105,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,12 +113,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +128,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +136,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +144,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,6 +152,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,12 +160,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +175,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +183,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,12 +191,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,30 +206,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -661,153 +686,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1127,112 +1007,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="7" max="7" width="19.2166666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.5666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>7</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="49" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="49" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>15</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -34,10 +34,7 @@
     <t>Rotation</t>
   </si>
   <si>
-    <t>DynamicObjectType</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
+    <t>TriggerEventIds</t>
   </si>
   <si>
     <t>int</t>
@@ -61,10 +58,7 @@
     <t>旋转</t>
   </si>
   <si>
-    <t>动态对象类型</t>
-  </si>
-  <si>
-    <t>子预制体名</t>
+    <t>触发事件Ids</t>
   </si>
   <si>
     <t>2</t>
@@ -1007,19 +1001,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="7" max="7" width="19.2166666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,37 +1034,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1079,42 +1066,39 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -64,16 +64,55 @@
     <t>2</t>
   </si>
   <si>
-    <t>Calendar</t>
+    <t>电子锁</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>(-3.86, 0.38, 0.18)</t>
+  </si>
+  <si>
+    <t>(0.00, 89.19, 0.00)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>日历</t>
   </si>
   <si>
     <t>100002</t>
   </si>
   <si>
-    <t>日历</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>(0.00, 0.00, 0.00)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>测试碰撞触发</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>(-2.60, 1.03, -6.07)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +130,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,7 +137,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,14 +144,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,7 +157,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,7 +164,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,7 +171,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +178,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +185,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +198,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,7 +205,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,14 +212,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,35 +225,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -680,8 +700,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1001,104 +1166,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
-  <cols>
-    <col min="7" max="7" width="19.2166666666667" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="G4" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,15 @@
     <t>TriggerEventIds</t>
   </si>
   <si>
+    <t>UseHotspot</t>
+  </si>
+  <si>
+    <t>HotspotRadius</t>
+  </si>
+  <si>
+    <t>HotspotIds</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -46,6 +55,12 @@
     <t>Vector3</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>资源路径</t>
   </si>
   <si>
@@ -61,6 +76,15 @@
     <t>触发事件Ids</t>
   </si>
   <si>
+    <t>使用热点区域</t>
+  </si>
+  <si>
+    <t>热点区域的范围</t>
+  </si>
+  <si>
+    <t>热点区域Ids</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -70,7 +94,7 @@
     <t>100001</t>
   </si>
   <si>
-    <t>(-3.86, 0.38, 0.18)</t>
+    <t>(0.00, 0.38, 0.00)</t>
   </si>
   <si>
     <t>(0.00, 89.19, 0.00)</t>
@@ -79,6 +103,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -88,9 +121,6 @@
     <t>100002</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>(0.00, 0.00, 0.00)</t>
   </si>
   <si>
@@ -112,7 +142,7 @@
     <t>100005</t>
   </si>
   <si>
-    <t>(-2.60, 1.03, -6.07)</t>
+    <t>(0.00, 1.03, 0.00)</t>
   </si>
 </sst>
 </file>
@@ -1166,13 +1196,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
@@ -1196,28 +1226,46 @@
       <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1228,111 +1276,156 @@
         <v>1</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="I7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="J7" s="49" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>HotspotIds</t>
   </si>
   <si>
+    <t>HotspotOffset</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>热点区域Ids</t>
+  </si>
+  <si>
+    <t>热点区域偏移</t>
   </si>
   <si>
     <t>2</t>
@@ -160,6 +166,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,6 +174,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,12 +182,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +197,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +205,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +213,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +221,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,12 +229,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,6 +244,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +252,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,12 +260,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,30 +275,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -730,153 +755,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1196,236 +1076,249 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <cols>
+    <col min="10" max="10" width="10.4833333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="49" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="49" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>31</v>
+      <c r="J7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -100,7 +100,7 @@
     <t>100001</t>
   </si>
   <si>
-    <t>(0.00, 0.38, 0.00)</t>
+    <t>(-4.83, 1.07, -4.38)</t>
   </si>
   <si>
     <t>(0.00, 89.19, 0.00)</t>
@@ -109,25 +109,28 @@
     <t>1</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>(0.00, 0.00, 0.00)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>日历</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>日历</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>(0.00, 0.00, 0.00)</t>
   </si>
   <si>
     <t>4</t>
@@ -166,7 +169,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,7 +176,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,14 +183,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +196,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +203,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +210,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,7 +217,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,14 +224,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,7 +237,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,7 +244,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,14 +251,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,35 +264,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -755,8 +739,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1083,242 +1212,250 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
-  <cols>
-    <col min="10" max="10" width="10.4833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
         <v>33</v>
       </c>
+      <c r="B5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="49" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>HotspotOffset</t>
   </si>
   <si>
+    <t>DirectInstructions</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>热点区域偏移</t>
+  </si>
+  <si>
+    <t>直接指令</t>
   </si>
   <si>
     <t>2</t>
@@ -169,6 +175,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,6 +183,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,12 +191,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +206,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +214,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,6 +222,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,6 +230,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,12 +238,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +253,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +261,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,12 +269,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,30 +284,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -739,153 +764,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1205,257 +1085,270 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="15.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="49" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="49" t="s">
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>32</v>
+      <c r="K7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -106,7 +106,7 @@
     <t>100001</t>
   </si>
   <si>
-    <t>(-4.83, 1.07, -4.38)</t>
+    <t>(0.00, 1.07, 0.00)</t>
   </si>
   <si>
     <t>(0.00, 89.19, 0.00)</t>
@@ -121,6 +121,9 @@
     <t>(0.00, 0.00, 0.00)</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>100002</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>False</t>
@@ -175,7 +175,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,7 +182,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,14 +189,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,7 +202,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,7 +209,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,7 +216,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +223,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,14 +230,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,7 +243,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,7 +250,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,14 +257,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,35 +270,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -764,8 +745,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1092,263 +1218,271 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
-  <cols>
-    <col min="11" max="11" width="15.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="49" t="s">
         <v>34</v>
       </c>
+      <c r="L4" s="49" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="L7" s="49" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,9 @@
     <t>DirectInstructions</t>
   </si>
   <si>
+    <t>SubDynamicObject</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
   </si>
   <si>
     <t>直接指令</t>
+  </si>
+  <si>
+    <t>子物体</t>
   </si>
   <si>
     <t>2</t>
@@ -175,6 +181,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +189,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,12 +197,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +212,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +220,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +228,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +236,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,12 +244,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,6 +259,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,6 +267,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,12 +275,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,30 +290,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -745,153 +770,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1211,278 +1091,287 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="49" t="s">
-        <v>13</v>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="49" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="49" t="s">
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>35</v>
+      <c r="L7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>NameCn</t>
   </si>
   <si>
+    <t>Space</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>中文名</t>
+  </si>
+  <si>
+    <t>位置空间</t>
   </si>
   <si>
     <t>位置</t>
@@ -1091,15 +1097,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,49 +1145,55 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1189,189 +1201,192 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,15 @@
     <t>SubDynamicObject</t>
   </si>
   <si>
+    <t>InteractRadius</t>
+  </si>
+  <si>
+    <t>InteractOffset</t>
+  </si>
+  <si>
+    <t>InteractRadian</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -107,6 +116,15 @@
   </si>
   <si>
     <t>子物体</t>
+  </si>
+  <si>
+    <t>可交互半径</t>
+  </si>
+  <si>
+    <t>交互点偏移</t>
+  </si>
+  <si>
+    <t>可交互角度</t>
   </si>
   <si>
     <t>2</t>
@@ -1097,15 +1115,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <cols>
+    <col min="16" max="16" width="12.1666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,52 +1169,70 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1201,192 +1240,201 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
       </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>InteractRadian</t>
   </si>
   <si>
+    <t>InteractTarget</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>可交互角度</t>
+  </si>
+  <si>
+    <t>交互对象</t>
   </si>
   <si>
     <t>2</t>
@@ -1115,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -1126,7 +1132,7 @@
     <col min="16" max="16" width="12.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,61 +1184,67 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1240,201 +1252,204 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,9 @@
     <t>InteractTarget</t>
   </si>
   <si>
+    <t>DefaultHideModel</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>交互对象</t>
   </si>
   <si>
+    <t>默认隐藏模型</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -142,10 +148,13 @@
     <t>100001</t>
   </si>
   <si>
-    <t>(0.00, 1.07, 0.00)</t>
-  </si>
-  <si>
-    <t>(0.00, 89.19, 0.00)</t>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>(0.00, 0.30, 0.00)</t>
+  </si>
+  <si>
+    <t>(0.00, 0.00, 0.00)</t>
   </si>
   <si>
     <t>1</t>
@@ -154,12 +163,15 @@
     <t>True</t>
   </si>
   <si>
-    <t>(0.00, 0.00, 0.00)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -167,12 +179,6 @@
   </si>
   <si>
     <t>100002</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>4</t>
@@ -211,7 +217,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,7 +224,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,14 +231,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,7 +244,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,7 +251,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +258,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,7 +265,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,14 +272,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,7 +285,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,7 +292,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,14 +299,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,35 +312,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,8 +787,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1121,335 +1253,425 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
-  <cols>
-    <col min="16" max="16" width="12.1666666666667" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="49" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="49" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="L2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="P3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="49" t="s">
         <v>38</v>
       </c>
+      <c r="R3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D4" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="S7" s="49" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>UseHotspot</t>
   </si>
   <si>
+    <t>DefaultHideHotspot</t>
+  </si>
+  <si>
     <t>HotspotRadius</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>使用热点区域</t>
+  </si>
+  <si>
+    <t>默认关闭热点</t>
   </si>
   <si>
     <t>热点区域的范围</t>
@@ -217,6 +223,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +231,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,12 +239,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +254,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +262,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +270,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,6 +278,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,12 +286,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,6 +301,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,6 +309,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,12 +317,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,30 +332,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -787,153 +812,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1253,425 +1133,434 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="49" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="49" t="s">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="49" t="s">
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="49" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="O3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="R3" t="s">
         <v>40</v>
       </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="49" t="s">
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="T7" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" s="49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Rotation</t>
   </si>
   <si>
+    <t>Scale</t>
+  </si>
+  <si>
     <t>TriggerEventIds</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>旋转</t>
+  </si>
+  <si>
+    <t>缩放</t>
   </si>
   <si>
     <t>触发事件Ids</t>
@@ -1133,15 +1139,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,70 +1208,76 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1273,294 +1285,297 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="U7" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
+++ b/StreamRes/ExcelTable/Excel/DynamicObject.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +56,9 @@
     <t>TriggerEventIds</t>
   </si>
   <si>
+    <t>DefaultDisableInteract</t>
+  </si>
+  <si>
     <t>UseHotspot</t>
   </si>
   <si>
@@ -113,6 +129,9 @@
   </si>
   <si>
     <t>触发事件Ids</t>
+  </si>
+  <si>
+    <t>默认关闭交互</t>
   </si>
   <si>
     <t>使用热点区域</t>
@@ -220,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -232,6 +251,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +259,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,12 +267,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +282,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +290,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,6 +298,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +306,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,12 +314,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +329,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,6 +337,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,12 +345,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,30 +360,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -802,153 +840,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1268,467 +1161,482 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <cols>
+    <col min="10" max="10" width="19.6666666666667" customWidth="1"/>
+    <col min="18" max="18" width="17.45" customWidth="1"/>
+    <col min="21" max="21" width="15.7833333333333" customWidth="1"/>
+    <col min="22" max="22" width="17.1583333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="49" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="S3" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="T3" t="s">
         <v>44</v>
       </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="49" t="s">
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="49" t="s">
+      <c r="V5" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="49" t="s">
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="49" t="s">
-        <v>53</v>
+      <c r="V6" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="49" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="49" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
